--- a/fuentes/contenidos/grado06/guion07/EsqueletoGuion_MA_06_07_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion07/EsqueletoGuion_MA_06_07_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9705" tabRatio="729"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9705" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="101">
   <si>
     <t>TITULO</t>
   </si>
@@ -317,10 +317,10 @@
     <t>Ejercitación y competencias</t>
   </si>
   <si>
-    <t>Fin de la unidad</t>
-  </si>
-  <si>
     <t>Más información</t>
+  </si>
+  <si>
+    <t>M5a</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -839,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,11 +1521,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1537,7 +1532,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1613,9 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2033,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4135,10 +4132,7 @@
       <c r="B147" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E147" s="9" t="s">
+      <c r="C147" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4149,10 +4143,7 @@
       <c r="B148" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E148" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4163,10 +4154,7 @@
       <c r="B149" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E149" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4177,10 +4165,7 @@
       <c r="B150" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E150" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4191,10 +4176,7 @@
       <c r="B151" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E151" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H151" s="8" t="s">
@@ -4208,10 +4190,10 @@
       <c r="A152" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E152" s="9" t="s">
+      <c r="B152" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4219,10 +4201,10 @@
       <c r="A153" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E153" s="9" t="s">
+      <c r="B153" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4230,10 +4212,10 @@
       <c r="A154" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E154" s="9" t="s">
+      <c r="B154" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4241,10 +4223,10 @@
       <c r="A155" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E155" s="9" t="s">
+      <c r="B155" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4252,10 +4234,10 @@
       <c r="A156" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E156" s="9" t="s">
+      <c r="B156" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H156" s="8" t="s">
@@ -4269,88 +4251,30 @@
       <c r="A157" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="B157" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>75</v>
+      <c r="I157" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C163" s="9" t="s">
+      <c r="B158" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H163" s="8" t="s">
+      <c r="H158" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I163" s="10" t="s">
+      <c r="I158" s="10" t="s">
         <v>67</v>
       </c>
     </row>
